--- a/data/trans_dic/P3A_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R-Habitat-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.6734092065518971</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.7846158329162725</v>
+        <v>0.7846158329162728</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.229197619638109</v>
+        <v>0.2247196898397694</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3589602685238692</v>
+        <v>0.3586814324635315</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4413378211949415</v>
+        <v>0.4377303526057328</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5866232151765393</v>
+        <v>0.5882526064972449</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.8098616622172108</v>
+        <v>0.8084827129127143</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8154971676617189</v>
+        <v>0.8130234251298871</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8428364494805652</v>
+        <v>0.8400155641376932</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.9122414869905267</v>
+        <v>0.9132289624676988</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.518890934898895</v>
+        <v>0.5233738171301566</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.5925403586325507</v>
+        <v>0.5911201230349262</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.6479530229590423</v>
+        <v>0.6452415172076313</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.7577711324011316</v>
+        <v>0.7596599973369464</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2951607089241746</v>
+        <v>0.2918400775617055</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4337440024554041</v>
+        <v>0.4358876776199953</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5212698966217956</v>
+        <v>0.5165959967589864</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6668754539856929</v>
+        <v>0.6661268396238544</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8634520686267817</v>
+        <v>0.8652156870741347</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8707283177536055</v>
+        <v>0.8682587212944607</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8956551420129183</v>
+        <v>0.8941492422606027</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9484146570306088</v>
+        <v>0.9477039179164974</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5737567796984887</v>
+        <v>0.576702578010817</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6468836946423766</v>
+        <v>0.6445647385914379</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.6981168015405236</v>
+        <v>0.6968571100780309</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.8078202501716208</v>
+        <v>0.8064611187408245</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.513208795534044</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6501003332913027</v>
+        <v>0.6501003332913028</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.859654941317511</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2829988980991462</v>
+        <v>0.2845723897601211</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.390439758759015</v>
+        <v>0.3892732438877035</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4804108705555398</v>
+        <v>0.4833235366828947</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6172478663385209</v>
+        <v>0.6158655343397703</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8368047663089399</v>
+        <v>0.8354916696946927</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.799914437668642</v>
+        <v>0.8002128183552939</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8705343104908845</v>
+        <v>0.8697562080950487</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.900080115471948</v>
+        <v>0.8986033294717541</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.5659279819741856</v>
+        <v>0.5650093490615888</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.604223167784947</v>
+        <v>0.6033869794073774</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.682061420470857</v>
+        <v>0.684144970140369</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.7650687102992162</v>
+        <v>0.7645695412771311</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3449417105943871</v>
+        <v>0.3482639890449564</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4558096312570237</v>
+        <v>0.4527689658356571</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5439888338566345</v>
+        <v>0.5441983540048069</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6855051158378223</v>
+        <v>0.6819392283674149</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8795850708560062</v>
+        <v>0.8813659803215242</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8501091138697885</v>
+        <v>0.8494876580719615</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9096178210742942</v>
+        <v>0.9107545601733401</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9340664444261633</v>
+        <v>0.9348732302704071</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6086200502331999</v>
+        <v>0.6102575976250868</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6460533139412103</v>
+        <v>0.6466186954577221</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.7243034718737161</v>
+        <v>0.7258897517962705</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.8054203986261597</v>
+        <v>0.8043057375911785</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.7057788401261079</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.7921445498233224</v>
+        <v>0.7921445498233225</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3601634678779575</v>
+        <v>0.3543422652258221</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3952892665795129</v>
+        <v>0.3981096722478463</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4843451515380165</v>
+        <v>0.4851733595957964</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.634969366720856</v>
+        <v>0.6398986500557717</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8452527283425035</v>
+        <v>0.8440158404419156</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8244408552268845</v>
+        <v>0.8227132364275264</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8562691461713431</v>
+        <v>0.8591971474515629</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8805808484286108</v>
+        <v>0.8799114532254952</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6062609982585954</v>
+        <v>0.6066177613720141</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.6197322442022238</v>
+        <v>0.6182148373756532</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.6819832663327282</v>
+        <v>0.6794413998911347</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.7671237334551709</v>
+        <v>0.7679370412759307</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.433105709623394</v>
+        <v>0.4307324142229019</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4747364098393779</v>
+        <v>0.4697224777765179</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5582189912040831</v>
+        <v>0.5617452891605652</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7153726058936347</v>
+        <v>0.7157394783571228</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8960930109262101</v>
+        <v>0.8939561609763458</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8783458866528927</v>
+        <v>0.8781854657791702</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9043930511108597</v>
+        <v>0.9051682771279896</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9264984840878636</v>
+        <v>0.9275374401539963</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6604456780789412</v>
+        <v>0.6582600372571351</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6709678765755426</v>
+        <v>0.6705888832023501</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.7294965661720618</v>
+        <v>0.7286537380941455</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.8134970353793558</v>
+        <v>0.8130185250023566</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.5970717890347603</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6626412911052502</v>
+        <v>0.6626412911052504</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.8053832445365328</v>
@@ -1105,7 +1105,7 @@
         <v>0.7316195463759774</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.7755778677584586</v>
+        <v>0.7755778677584585</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3636298285968573</v>
+        <v>0.3611323185097976</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.450903069997824</v>
+        <v>0.4469876428712267</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5651782709541717</v>
+        <v>0.5673817573971655</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.629116230073871</v>
+        <v>0.6281101443598409</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7808961594529013</v>
+        <v>0.7796761969218495</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8009513563248387</v>
+        <v>0.8025202220047822</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8286224181493757</v>
+        <v>0.8251391510263083</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.8540464735185573</v>
+        <v>0.8535165549410333</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.5871807931098297</v>
+        <v>0.5848782946764883</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.6414100885432894</v>
+        <v>0.6418917344852455</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.7116161822159004</v>
+        <v>0.7118609864173437</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.757643736359255</v>
+        <v>0.7569972999110552</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4250988840909646</v>
+        <v>0.4257518313498676</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5148469471986009</v>
+        <v>0.5174083568933209</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6267127749546744</v>
+        <v>0.6288479904232178</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6943054951337261</v>
+        <v>0.6937126386152104</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8308241205990649</v>
+        <v>0.8293325514667067</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8482313375266762</v>
+        <v>0.8498924348145656</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.872589470876878</v>
+        <v>0.8722334484753238</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8954546045100908</v>
+        <v>0.8946743104221192</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6290532850553062</v>
+        <v>0.6292076500975293</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.6848505883727443</v>
+        <v>0.6853440393505409</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.7518988205291439</v>
+        <v>0.7534589609112512</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.7940969484599986</v>
+        <v>0.7932651662353339</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.7064143311540036</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.7841178267236728</v>
+        <v>0.7841178267236727</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3250490311813861</v>
+        <v>0.3245525141920467</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4193373973404099</v>
+        <v>0.4199376276163997</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5141483430695787</v>
+        <v>0.5132774786570602</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6351154084348603</v>
+        <v>0.634264217676654</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8269131291890429</v>
+        <v>0.8266029757937727</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8222885173460593</v>
+        <v>0.8226079658771344</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8622617069399151</v>
+        <v>0.8617674285340627</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.8961948497794108</v>
+        <v>0.8957152698446258</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.5838616303508082</v>
+        <v>0.5826453771838973</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.6274246425940401</v>
+        <v>0.6278387167111762</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.6947350594456351</v>
+        <v>0.6948378359995179</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.7726354913281056</v>
+        <v>0.7725483567892708</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3594382224772504</v>
+        <v>0.3590235457654158</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4541266466748808</v>
+        <v>0.453723631169354</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5493842049838429</v>
+        <v>0.5476634777748219</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6724455680291604</v>
+        <v>0.6732410353417373</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8534838897211169</v>
+        <v>0.8526701710792921</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8474577761881998</v>
+        <v>0.8487663793578549</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8847822854321177</v>
+        <v>0.8852395735966979</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9157172619145945</v>
+        <v>0.9156070272378266</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.6078917853595526</v>
+        <v>0.6070590199623638</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.6521186203114689</v>
+        <v>0.6513354011408915</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.7164358509539672</v>
+        <v>0.7174201217578549</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.7938676764520349</v>
+        <v>0.7934134885047113</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>159066</v>
+        <v>155958</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>252517</v>
+        <v>252321</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>297815</v>
+        <v>295380</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>404903</v>
+        <v>406027</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>556535</v>
+        <v>555588</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>568442</v>
+        <v>566718</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>566306</v>
+        <v>564411</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>669749</v>
+        <v>670474</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>716697</v>
+        <v>722889</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>829864</v>
+        <v>827875</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>872602</v>
+        <v>868950</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1079374</v>
+        <v>1082064</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>204845</v>
+        <v>202541</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>305125</v>
+        <v>306633</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>351753</v>
+        <v>348599</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>460295</v>
+        <v>459778</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>593363</v>
+        <v>594574</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>606941</v>
+        <v>605220</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>601795</v>
+        <v>600783</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>696307</v>
+        <v>695785</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>792479</v>
+        <v>796547</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>905973</v>
+        <v>902725</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>940157</v>
+        <v>938461</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>1150664</v>
+        <v>1148728</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>272188</v>
+        <v>273702</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>397034</v>
+        <v>395847</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>490720</v>
+        <v>493695</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>647442</v>
+        <v>645992</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>810356</v>
+        <v>809084</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>825659</v>
+        <v>825967</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>907061</v>
+        <v>906250</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>964412</v>
+        <v>962830</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1092350</v>
+        <v>1090577</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1238097</v>
+        <v>1236383</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1407377</v>
+        <v>1411676</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1622245</v>
+        <v>1621186</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>331765</v>
+        <v>334960</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>463507</v>
+        <v>460415</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>555662</v>
+        <v>555876</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>719038</v>
+        <v>715298</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>851784</v>
+        <v>853509</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>877469</v>
+        <v>876828</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>947784</v>
+        <v>948969</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1000828</v>
+        <v>1001692</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1174754</v>
+        <v>1177915</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1323810</v>
+        <v>1324968</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1494540</v>
+        <v>1497813</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1707806</v>
+        <v>1705443</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>244374</v>
+        <v>240424</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>299480</v>
+        <v>301617</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>366014</v>
+        <v>366640</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>509927</v>
+        <v>513885</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>575146</v>
+        <v>574305</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>639084</v>
+        <v>637745</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>670441</v>
+        <v>672733</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>715260</v>
+        <v>714716</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>823880</v>
+        <v>824364</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>949923</v>
+        <v>947597</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1049346</v>
+        <v>1045435</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1239160</v>
+        <v>1240473</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>293866</v>
+        <v>292256</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>359671</v>
+        <v>355873</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>421840</v>
+        <v>424505</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>574496</v>
+        <v>574791</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>609740</v>
+        <v>608286</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>680870</v>
+        <v>680746</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>708121</v>
+        <v>708728</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>752557</v>
+        <v>753401</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>897514</v>
+        <v>894544</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>1028457</v>
+        <v>1027876</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>1122453</v>
+        <v>1121156</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>1314068</v>
+        <v>1313295</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>342299</v>
+        <v>339948</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>427338</v>
+        <v>423628</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>527516</v>
+        <v>529573</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>622480</v>
+        <v>621485</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>811048</v>
+        <v>809781</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>842522</v>
+        <v>844172</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>864036</v>
+        <v>860404</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>954650</v>
+        <v>954057</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1162590</v>
+        <v>1158031</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1282589</v>
+        <v>1283552</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1406225</v>
+        <v>1406708</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1596544</v>
+        <v>1595182</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>400163</v>
+        <v>400777</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>487941</v>
+        <v>490368</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>584950</v>
+        <v>586943</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>686982</v>
+        <v>686395</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>862904</v>
+        <v>861355</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>892255</v>
+        <v>894003</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>909882</v>
+        <v>909511</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1000936</v>
+        <v>1000063</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1245495</v>
+        <v>1245801</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1369455</v>
+        <v>1370441</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1485827</v>
+        <v>1488910</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1673360</v>
+        <v>1671607</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1064750</v>
+        <v>1063124</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1436532</v>
+        <v>1438588</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1740551</v>
+        <v>1737603</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2243017</v>
+        <v>2240011</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2790538</v>
+        <v>2789492</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2924311</v>
+        <v>2925447</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>3052044</v>
+        <v>3050295</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>3347923</v>
+        <v>3346132</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>3882859</v>
+        <v>3874771</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>4380696</v>
+        <v>4383587</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>4810964</v>
+        <v>4811676</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>5615034</v>
+        <v>5614401</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1177398</v>
+        <v>1176039</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1555710</v>
+        <v>1554330</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1859835</v>
+        <v>1854010</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>2374855</v>
+        <v>2377664</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>2880205</v>
+        <v>2877459</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>3013821</v>
+        <v>3018475</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>3131758</v>
+        <v>3133376</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>3420853</v>
+        <v>3420441</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>4042667</v>
+        <v>4037129</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>4553110</v>
+        <v>4547641</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>4961239</v>
+        <v>4968055</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>5769336</v>
+        <v>5766036</v>
       </c>
     </row>
     <row r="24">
